--- a/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C26F3F3-4700-404E-9005-DB724380FA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2FBF61-3335-4ED6-A195-8F99AAD3D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A273816-5E23-4105-ACEE-7458378DFDC7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{244491BF-DF39-4E64-8D6B-CDB51F8085E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
   <si>
     <t>Población según el por que no pagarían para reducir la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 37,19%)</t>
   </si>
@@ -110,49 +110,49 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>15,01%</t>
+    <t>11,92%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>24,62%</t>
+    <t>24,57%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>13,43%</t>
@@ -161,478 +161,475 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>36,46%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>30,66%</t>
   </si>
   <si>
-    <t>52,93%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1047,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6FB7F0-6895-41D0-AF96-24314C3DE27B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83D3F27-DFD1-4EFD-8EFB-62558E7A6FF7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,10 +1584,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1599,13 +1596,13 @@
         <v>10174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1617,13 @@
         <v>5452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1635,13 +1632,13 @@
         <v>1807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1650,13 +1647,13 @@
         <v>7259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1668,13 @@
         <v>7231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1686,13 +1683,13 @@
         <v>4921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -1701,13 +1698,13 @@
         <v>12151</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1760,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1772,13 @@
         <v>14192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -1790,13 +1787,13 @@
         <v>10063</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -1805,13 +1802,13 @@
         <v>24255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1823,13 @@
         <v>47935</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -1841,13 +1838,13 @@
         <v>44962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -1856,13 +1853,13 @@
         <v>92897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1874,10 @@
         <v>72587</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>86</v>
@@ -2134,13 +2131,13 @@
         <v>7919</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2149,13 +2146,13 @@
         <v>4398</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -2164,13 +2161,13 @@
         <v>12317</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2182,13 @@
         <v>34740</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2200,13 +2197,13 @@
         <v>28310</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -2215,13 +2212,13 @@
         <v>63051</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2233,13 @@
         <v>9226</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2251,13 +2248,13 @@
         <v>11260</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2266,10 +2263,10 @@
         <v>20485</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>146</v>
@@ -2290,10 +2287,10 @@
         <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2302,13 +2299,13 @@
         <v>5041</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2317,13 +2314,13 @@
         <v>9786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2388,13 @@
         <v>18899</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -2406,13 +2403,13 @@
         <v>15784</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -2421,13 +2418,13 @@
         <v>34683</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>65430</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -2457,13 +2454,13 @@
         <v>55798</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>169</v>
@@ -2472,10 +2469,10 @@
         <v>121227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>172</v>
@@ -2526,10 +2523,10 @@
         <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2541,13 @@
         <v>48282</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="H31" s="7">
         <v>53</v>
@@ -2559,13 +2556,13 @@
         <v>36523</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>111</v>
@@ -2574,13 +2571,13 @@
         <v>84805</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2592,13 @@
         <v>27741</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -2610,13 +2607,13 @@
         <v>31459</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -2625,13 +2622,13 @@
         <v>59200</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2684,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2FBF61-3335-4ED6-A195-8F99AAD3D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E122350-FE67-43C2-B2F0-23C38C4E7772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{244491BF-DF39-4E64-8D6B-CDB51F8085E8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1F2B74-0BD0-4F6A-B942-0F97D78D462C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Población según el por que no pagarían para reducir la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 37,19%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,571 +65,562 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
   </si>
   <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
     <t>Ya pago demasiados impuestos</t>
   </si>
   <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
     <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
   </si>
   <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
     <t>No me siento responsable de la contaminación del aire</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1044,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83D3F27-DFD1-4EFD-8EFB-62558E7A6FF7}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DEF178-8B5F-47B3-A346-5A3318995BF2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,243 +1153,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1656</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7508</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>18107</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7628</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>3736</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="7">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>11365</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1731</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>6853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4627</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>7378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>12005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,304 +1408,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23150</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7">
-        <v>1171</v>
+        <v>27915</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>1171</v>
+        <v>51065</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>1030</v>
+        <v>10135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>1679</v>
+        <v>14923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>2708</v>
+        <v>25058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>9575</v>
+        <v>64318</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>6438</v>
+        <v>51348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="N11" s="7">
-        <v>16013</v>
+        <v>115666</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7">
-        <v>3612</v>
+        <v>58938</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="I12" s="7">
-        <v>6562</v>
+        <v>75397</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="N12" s="7">
-        <v>10174</v>
+        <v>134334</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>5452</v>
+        <v>21692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>1807</v>
+        <v>32316</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>7259</v>
+        <v>54008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>7231</v>
+        <v>19234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>4921</v>
+        <v>15406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>12151</v>
+        <v>34641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,306 +1716,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>26901</v>
+        <v>174317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7">
-        <v>21406</v>
+        <v>189390</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>65</v>
+        <v>486</v>
       </c>
       <c r="N15" s="7">
-        <v>48306</v>
+        <v>363707</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>14192</v>
+        <v>3991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>10063</v>
+        <v>3848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>24255</v>
+        <v>7839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>47935</v>
+        <v>4842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>44962</v>
+        <v>9024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>92897</v>
+        <v>13865</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>72587</v>
+        <v>28022</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>60102</v>
+        <v>36205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="N18" s="7">
-        <v>132689</v>
+        <v>64227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>33604</v>
+        <v>11399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>23456</v>
+        <v>8794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>57060</v>
+        <v>20193</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>15765</v>
+        <v>5002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>20326</v>
+        <v>5097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>36091</v>
+        <v>10099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,306 +2024,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7">
-        <v>184084</v>
+        <v>53255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>158909</v>
+        <v>62968</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>486</v>
+        <v>162</v>
       </c>
       <c r="N21" s="7">
-        <v>342993</v>
+        <v>116223</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>3677</v>
+        <v>15781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I22" s="7">
-        <v>4043</v>
+        <v>19851</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>7720</v>
+        <v>35632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D23" s="7">
-        <v>7919</v>
+        <v>76668</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>4398</v>
+        <v>70971</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="N23" s="7">
-        <v>12317</v>
+        <v>147639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="D24" s="7">
-        <v>34740</v>
+        <v>94588</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="I24" s="7">
-        <v>28310</v>
+        <v>115337</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
-        <v>92</v>
+        <v>301</v>
       </c>
       <c r="N24" s="7">
-        <v>63051</v>
+        <v>209926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7">
-        <v>9226</v>
+        <v>34821</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I25" s="7">
-        <v>11260</v>
+        <v>46232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="N25" s="7">
-        <v>20485</v>
+        <v>81054</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>4745</v>
+        <v>28864</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I26" s="7">
-        <v>5041</v>
+        <v>27881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="N26" s="7">
-        <v>9786</v>
+        <v>56745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,369 +2332,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="D27" s="7">
-        <v>60307</v>
+        <v>250723</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="I27" s="7">
-        <v>53052</v>
+        <v>280272</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>162</v>
+        <v>713</v>
       </c>
       <c r="N27" s="7">
-        <v>113359</v>
+        <v>530995</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>27</v>
-      </c>
-      <c r="D28" s="7">
-        <v>18899</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="7">
-        <v>22</v>
-      </c>
-      <c r="I28" s="7">
-        <v>15784</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M28" s="7">
-        <v>49</v>
-      </c>
-      <c r="N28" s="7">
-        <v>34683</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>95</v>
-      </c>
-      <c r="D29" s="7">
-        <v>65430</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="7">
-        <v>74</v>
-      </c>
-      <c r="I29" s="7">
-        <v>55798</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M29" s="7">
-        <v>169</v>
-      </c>
-      <c r="N29" s="7">
-        <v>121227</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>153</v>
-      </c>
-      <c r="D30" s="7">
-        <v>110940</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="7">
-        <v>148</v>
-      </c>
-      <c r="I30" s="7">
-        <v>94975</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M30" s="7">
-        <v>301</v>
-      </c>
-      <c r="N30" s="7">
-        <v>205915</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>58</v>
-      </c>
-      <c r="D31" s="7">
-        <v>48282</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="7">
-        <v>53</v>
-      </c>
-      <c r="I31" s="7">
-        <v>36523</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M31" s="7">
-        <v>111</v>
-      </c>
-      <c r="N31" s="7">
-        <v>84805</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7">
-        <v>37</v>
-      </c>
-      <c r="D32" s="7">
-        <v>27741</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="7">
-        <v>47</v>
-      </c>
-      <c r="I32" s="7">
-        <v>31459</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M32" s="7">
-        <v>84</v>
-      </c>
-      <c r="N32" s="7">
-        <v>59200</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="A28" t="s">
         <v>195</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>370</v>
-      </c>
-      <c r="D33" s="7">
-        <v>271292</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7">
-        <v>344</v>
-      </c>
-      <c r="I33" s="7">
-        <v>234538</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="7">
-        <v>714</v>
-      </c>
-      <c r="N33" s="7">
-        <v>505830</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
